--- a/ZBabcock_RelationshipTable.xlsx
+++ b/ZBabcock_RelationshipTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="28">
   <si>
     <t>ActivityTypes</t>
   </si>
@@ -88,13 +88,28 @@
   </si>
   <si>
     <t>Afterwards, if an inserted BusinessType doesn't exist in BusinessTypes, raise error and rollback.</t>
+  </si>
+  <si>
+    <t>NDR</t>
+  </si>
+  <si>
+    <t>X = Does not Exist</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>' = Relationship, but not covered by trigger</t>
+  </si>
+  <si>
+    <t>info needed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,19 +124,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,7 +170,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -470,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,9 +520,9 @@
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" customWidth="1"/>
     <col min="17" max="17" width="30.28515625" customWidth="1"/>
     <col min="18" max="18" width="24" customWidth="1"/>
     <col min="19" max="19" width="24.42578125" customWidth="1"/>
@@ -608,9 +637,15 @@
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
@@ -620,23 +655,47 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="T4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -710,9 +769,15 @@
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
@@ -722,9 +787,15 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="K6" s="3" t="s">
         <v>22</v>
       </c>
@@ -735,9 +806,15 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="Q6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -746,9 +823,15 @@
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
@@ -768,8 +851,12 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
         <v>17</v>
@@ -786,9 +873,15 @@
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
@@ -828,7 +921,9 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
@@ -846,7 +941,9 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3" t="s">
         <v>16</v>
@@ -860,9 +957,15 @@
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
@@ -895,6 +998,16 @@
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ZBabcock_RelationshipTable.xlsx
+++ b/ZBabcock_RelationshipTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="30">
   <si>
     <t>ActivityTypes</t>
   </si>
@@ -57,39 +57,9 @@
     <t>NDR = "No Direct Relationship"</t>
   </si>
   <si>
-    <t>Afterwards, update ModifiedDate in Leads</t>
-  </si>
-  <si>
-    <t>Afterwards, update ModifiedDate in Leads.</t>
-  </si>
-  <si>
-    <t>After, if updated, relevant entries also updated.</t>
-  </si>
-  <si>
-    <t>Instead of, if deleted, have to delete relevant entries in Companies first.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Afterwards, update ModifiedDate. </t>
   </si>
   <si>
-    <t>Afterwards, if an agency is put in that doesn't have the Agency flag set to 1, rollback and raise error. If nonexistant company is inserted, rollback and raise error.</t>
-  </si>
-  <si>
-    <t>Same as INSERT.</t>
-  </si>
-  <si>
-    <t>Afterwards, if a contact is inserted that does not exist in the Contacts table, rollback and raise error.</t>
-  </si>
-  <si>
-    <t>Afterwards, if a source is inserted that does not exist in the Sources table, rollback and raise error.</t>
-  </si>
-  <si>
-    <t>Instead of, if any relevant instances of a LeadID exist in Activities, LeadID in Leads can't be deleted.</t>
-  </si>
-  <si>
-    <t>Afterwards, if an inserted BusinessType doesn't exist in BusinessTypes, raise error and rollback.</t>
-  </si>
-  <si>
     <t>NDR</t>
   </si>
   <si>
@@ -102,7 +72,43 @@
     <t>' = Relationship, but not covered by trigger</t>
   </si>
   <si>
-    <t>info needed</t>
+    <t>Instead of, if any relevant instances of a LeadID exist in Activities, LeadID in Leads can't be deleted. V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afterwards, if an inserted BusinessType doesn't exist in BusinessTypes, raise error and rollback. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as INSERT. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afterwards, if an agency is put in that doesn't have the Agency flag set to 1, rollback and raise error. If nonexistant company is inserted, rollback and raise error. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afterwards, if an inserted CompanyID doesn't exist in Companies, raise error and rollback. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instead of, if deleted, have to delete relevant entries in Contacts first. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afterwards, if a contact is inserted that does not exist in the Contacts table, rollback and raise error. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instead of, if deleted, have to delete all relevant entries in Leads first. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instead of, if deleted, have to delete relevant entries in Leads first. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afterwards, if a source is inserted that does not exist in the Sources table, rollback and raise error. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instead of, if deleted, have to delete relevant entries in Companies first. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After, if updated, relevant entries in Companies also updated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afterwards, update ModifiedDate in Leads. Also, if an inserted LeadID doesn't exist, rollback and raise error. </t>
   </si>
 </sst>
 </file>
@@ -133,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,11 +165,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -185,6 +194,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,25 +517,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="21.42578125" customWidth="1"/>
@@ -528,47 +544,53 @@
     <col min="19" max="19" width="24.42578125" customWidth="1"/>
     <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -633,383 +655,509 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+    </row>
     <row r="4" spans="1:22" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>23</v>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:22" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="R8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+    <row r="9" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="S9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
+    <row r="17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="T1:V1"/>
